--- a/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/CTO/UNTALAN, DIVINA R..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="288">
   <si>
     <t>PERIOD</t>
   </si>
@@ -891,6 +891,12 @@
   </si>
   <si>
     <t>UT(0-0-10)</t>
+  </si>
+  <si>
+    <t>SL(0-4-0)</t>
+  </si>
+  <si>
+    <t>12/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1597,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K499" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K499"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K500" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K500"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1921,12 +1927,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K499"/>
+  <dimension ref="A2:K500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A441" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A444" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="G460" sqref="G460"/>
+      <selection pane="bottomLeft" activeCell="K463" sqref="K463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2097,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>202.50000000000006</v>
+        <v>204.25000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2101,7 +2107,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>237.79200000000003</v>
+        <v>241.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12027,15 +12033,17 @@
       <c r="B459" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C459" s="13"/>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D459" s="39">
         <v>1</v>
       </c>
       <c r="E459" s="9"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H459" s="39"/>
       <c r="I459" s="9"/>
@@ -12067,10 +12075,10 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B461" s="20"/>
+      <c r="A461" s="40"/>
+      <c r="B461" s="20" t="s">
+        <v>286</v>
+      </c>
       <c r="C461" s="13"/>
       <c r="D461" s="39"/>
       <c r="E461" s="9"/>
@@ -12079,23 +12087,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H461" s="39"/>
+      <c r="H461" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="20"/>
+      <c r="K461" s="49">
+        <v>45198</v>
+      </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B462" s="20"/>
-      <c r="C462" s="13"/>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D462" s="39"/>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H462" s="39"/>
       <c r="I462" s="9"/>
@@ -12104,25 +12118,33 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B463" s="20"/>
-      <c r="C463" s="13"/>
-      <c r="D463" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B463" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D463" s="39">
+        <v>2</v>
+      </c>
       <c r="E463" s="9"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
-      <c r="K463" s="20"/>
+      <c r="K463" s="20" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12140,7 +12162,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12158,7 +12180,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12176,7 +12198,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12194,7 +12216,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12212,7 +12234,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12230,7 +12252,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12248,7 +12270,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12266,7 +12288,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12284,7 +12306,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12302,7 +12324,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12320,7 +12342,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12338,7 +12360,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12356,7 +12378,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12374,7 +12396,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12392,7 +12414,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12410,7 +12432,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12428,7 +12450,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12446,7 +12468,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12464,7 +12486,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12482,7 +12504,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12500,7 +12522,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12518,7 +12540,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12536,7 +12558,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12554,7 +12576,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12572,7 +12594,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12589,7 +12611,9 @@
       <c r="K489" s="20"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="40"/>
+      <c r="A490" s="40">
+        <v>46054</v>
+      </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
@@ -12733,20 +12757,36 @@
       <c r="K498" s="20"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="41"/>
-      <c r="B499" s="15"/>
-      <c r="C499" s="42"/>
-      <c r="D499" s="43"/>
+      <c r="A499" s="40"/>
+      <c r="B499" s="20"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="39"/>
       <c r="E499" s="9"/>
-      <c r="F499" s="15"/>
-      <c r="G499" s="42" t="str">
+      <c r="F499" s="20"/>
+      <c r="G499" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H499" s="43"/>
+      <c r="H499" s="39"/>
       <c r="I499" s="9"/>
-      <c r="J499" s="12"/>
-      <c r="K499" s="15"/>
+      <c r="J499" s="11"/>
+      <c r="K499" s="20"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500" s="41"/>
+      <c r="B500" s="15"/>
+      <c r="C500" s="42"/>
+      <c r="D500" s="43"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="15"/>
+      <c r="G500" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H500" s="43"/>
+      <c r="I500" s="9"/>
+      <c r="J500" s="12"/>
+      <c r="K500" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
